--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1895152.186959736</v>
+        <v>-1897633.106785196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>113.6068875465489</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>169.9784191223819</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
@@ -1540,13 +1540,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>127.4052945569545</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>20.02266614744774</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>317.2412928176539</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104942</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.793698920123958</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>90.12097307877002</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>62.01200608292087</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>40.76753702577278</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>254.8582157886445</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>287.3256240034743</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,16 +2056,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>240.642054313072</v>
       </c>
       <c r="W19" t="n">
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>214.21406637828</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>196.1505424627073</v>
       </c>
       <c r="W20" t="n">
-        <v>119.3934559514735</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>134.938373635812</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782812</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,16 +2530,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>240.6420543130714</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258353</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>133.1067657762835</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>91.27556587748627</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052295</v>
+        <v>120.5216066929739</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>172.8237348705151</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>174.1560346887817</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,7 +3961,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>170.2318734253259</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,16 +4034,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>120.5216066929743</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5641732435933</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1553.357803377363</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.587353696675</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696675</v>
+        <v>466.4629129297011</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581548</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282709</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299107</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299107</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2892.026167189045</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2588.155347105198</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2262.578759094808</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>1916.305068093451</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.357803377363</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.8050585070994</v>
+        <v>418.3126375609366</v>
       </c>
       <c r="C13" t="n">
-        <v>504.0609428389161</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="D13" t="n">
-        <v>504.0609428389161</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="E13" t="n">
-        <v>504.0609428389161</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="F13" t="n">
-        <v>384.3630626007294</v>
+        <v>156.8706416545666</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>156.8706416545666</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,10 +5221,10 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
         <v>1718.795353991585</v>
@@ -5233,16 +5233,16 @@
         <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.884554376953</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.659451599716</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X13" t="n">
-        <v>993.8619679614219</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y13" t="n">
-        <v>800.2614560776154</v>
+        <v>572.7690351314526</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1766.94258496062</v>
+        <v>1848.301903863757</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.172135279932</v>
+        <v>1527.856153542894</v>
       </c>
       <c r="D14" t="n">
-        <v>1094.098503932905</v>
+        <v>1196.782522195868</v>
       </c>
       <c r="E14" t="n">
-        <v>735.5023185943842</v>
+        <v>838.1863368573471</v>
       </c>
       <c r="F14" t="n">
-        <v>351.7084810645002</v>
+        <v>454.3924993274632</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299107</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039936</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573496</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.571313482462</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="W14" t="n">
-        <v>2835.571313482462</v>
+        <v>2916.930632385599</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.297622481106</v>
+        <v>2570.656941384243</v>
       </c>
       <c r="Y14" t="n">
-        <v>2126.350357765018</v>
+        <v>2207.709676668155</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.269209623742</v>
+        <v>418.312637560937</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555586</v>
+        <v>276.5685218927535</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029466</v>
+        <v>276.5685218927535</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802771</v>
+        <v>276.5685218927535</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420904</v>
+        <v>276.5685218927535</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402571</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1718.795353991585</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.302933045421</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716358</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078064</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314528</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1829.12888146835</v>
+        <v>1544.173786276205</v>
       </c>
       <c r="C17" t="n">
-        <v>1534.808064735735</v>
+        <v>1249.85296954359</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.956853344063</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3289.956853344063</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>3033.53566620829</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.408711145972</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2456.584653092689</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2141.087021324674</v>
+        <v>1856.131926132529</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.827296267119</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604116</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.65726737195</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454049</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666653</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934038</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446369</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628264</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,13 +5780,13 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.620805936083</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.199618800309</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="W20" t="n">
         <v>2781.600168344275</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.151773123554</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>537.857290403444</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989052</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604116</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.65726737195</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.30941668173</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459968</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349346</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531241</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>429.662534801861</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917076</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2901.750690780204</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.525057137383</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409492871408</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956463590281</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290299</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235743</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504594</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830774</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094482</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.319223293447</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923641</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687492</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590165</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775279</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574179</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667906</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663397</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892618</v>
+        <v>1623.942389892617</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6181,16 +6181,16 @@
         <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259243</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357039</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999707</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6303,7 +6303,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676538</v>
@@ -6385,10 +6385,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>2200.835586644152</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2747.614403702934</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3250.586874582271</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6543,10 +6543,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702934</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6859,13 +6859,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,13 +6935,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7014,13 +7014,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127572</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586936</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202012</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>569.9553583116515</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388403</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691535</v>
+        <v>734.053543526682</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,28 +7172,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7202,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7251,7 +7251,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170929</v>
+        <v>552.4050786964422</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630293</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
         <v>231.3077836159871</v>
@@ -7360,22 +7360,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1471.208777510711</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1182.105910636354</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304675</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673502</v>
+        <v>886.8213698466992</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431761</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734893</v>
+        <v>635.3821089528385</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7488,10 +7488,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158131</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>598.2565075725909</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>527.9917592185272</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D43" t="n">
-        <v>476.5465543800348</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>427.304895371485</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735746</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>211.383545822137</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1469.863020118522</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1279.431587818009</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1123.418534185965</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>932.672798722848</v>
+        <v>877.9803925153279</v>
       </c>
       <c r="X43" t="n">
-        <v>803.354682398674</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.2335378289872</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,43 +7631,43 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.9279421464337</v>
+        <v>453.733644122599</v>
       </c>
       <c r="C46" t="n">
-        <v>626.6631937923702</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D46" t="n">
-        <v>575.2179889538779</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E46" t="n">
-        <v>525.9763299453282</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X46" t="n">
-        <v>1000.69755154636</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.9049724028299</v>
+        <v>536.7106743789953</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843063</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729007</v>
+        <v>184.4039433729012</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389603</v>
+        <v>191.4948909389609</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333066</v>
+        <v>181.0856325333072</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883024</v>
+        <v>179.3553748830246</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383989</v>
+        <v>182.8301554383995</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586584</v>
+        <v>190.8908035586589</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266123</v>
+        <v>192.0103836266127</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875974</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372532</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672273</v>
+        <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253592</v>
+        <v>104.1013981253597</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677644</v>
+        <v>92.30246558677696</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359735</v>
+        <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798323</v>
+        <v>105.3113487798327</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615457</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564657</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085227</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>105.0013903333777</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>274.0980055054512</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>21.74982042514728</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.02214132148598</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>400.20329728821</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>105.7385611944686</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>40.02214132148595</v>
+        <v>274.8351763665422</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.4033359385865</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>54.09660624939369</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.70036711494777</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.81220217974658</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.11145236622719</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579949</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>299.0384129628845</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.98468859313175</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>218.8353147236918</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>25.92954262631946</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.01703144686029</v>
       </c>
     </row>
     <row r="18">
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>57.70643280170863</v>
       </c>
       <c r="W20" t="n">
-        <v>155.9522295602205</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="D2" t="n">
         <v>143377.2672160406</v>
@@ -26326,16 +26326,16 @@
         <v>127669.5001583707</v>
       </c>
       <c r="G2" t="n">
-        <v>139042.8937181439</v>
+        <v>139042.893718144</v>
       </c>
       <c r="H2" t="n">
         <v>139042.8937181439</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
@@ -26350,7 +26350,7 @@
         <v>143682.3097262495</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.553675523</v>
+        <v>59764.55367552221</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,28 +26421,28 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475038</v>
+        <v>426120.6833475041</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863742</v>
+        <v>39414.21797863748</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863742</v>
+        <v>39414.21797863748</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007962</v>
+        <v>76442.37834007967</v>
       </c>
       <c r="H4" t="n">
         <v>76442.37834007965</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602838</v>
+        <v>89331.33560602844</v>
       </c>
       <c r="J4" t="n">
+        <v>86909.55729936334</v>
+      </c>
+      <c r="K4" t="n">
         <v>86909.55729936331</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86909.55729936333</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936331</v>
@@ -26454,10 +26454,10 @@
         <v>91573.95495316936</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186636</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26488,7 +26488,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337278.8609969112</v>
+        <v>-337283.2745747793</v>
       </c>
       <c r="C6" t="n">
-        <v>-337278.8609969111</v>
+        <v>-337283.2745747793</v>
       </c>
       <c r="D6" t="n">
-        <v>-377656.8752388525</v>
+        <v>-377661.2329889978</v>
       </c>
       <c r="E6" t="n">
-        <v>-1077553.180348725</v>
+        <v>-1077781.934771124</v>
       </c>
       <c r="F6" t="n">
-        <v>11685.79181490684</v>
+        <v>11457.03739250851</v>
       </c>
       <c r="G6" t="n">
-        <v>-55498.23704202466</v>
+        <v>-55564.51441356901</v>
       </c>
       <c r="H6" t="n">
-        <v>-17918.12774715062</v>
+        <v>-17984.40511869504</v>
       </c>
       <c r="I6" t="n">
-        <v>-54207.02201145462</v>
+        <v>-54207.02201145455</v>
       </c>
       <c r="J6" t="n">
-        <v>-58014.62226971661</v>
+        <v>-58014.62226971664</v>
       </c>
       <c r="K6" t="n">
-        <v>-32605.18924791976</v>
+        <v>-32605.18924791974</v>
       </c>
       <c r="L6" t="n">
-        <v>-70185.29854279374</v>
+        <v>-70185.29854279372</v>
       </c>
       <c r="M6" t="n">
-        <v>-232578.342525894</v>
+        <v>-232578.3425258939</v>
       </c>
       <c r="N6" t="n">
         <v>-30410.24253316967</v>
@@ -26561,7 +26561,7 @@
         <v>-30410.2425331697</v>
       </c>
       <c r="P6" t="n">
-        <v>-30410.24253316975</v>
+        <v>-30410.24253316964</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790666</v>
+        <v>69.78465283790574</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>50.70958360951234</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790666</v>
+        <v>69.78465283790574</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672104</v>
+        <v>84.22861846672112</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987514</v>
+        <v>90.83829126987527</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.4622088851908</v>
+        <v>84.46220888519093</v>
       </c>
       <c r="K10" t="n">
-        <v>7.64903505099028</v>
+        <v>7.649035050990474</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317048</v>
+        <v>75.62456067317062</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075716</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49558901075716</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>11.49558901075662</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L28" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M28" t="n">
         <v>46.97513661859222</v>
       </c>
-      <c r="L28" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="M28" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>46.72521440565379</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>54.14548214544497</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,16 +30189,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>97.68472022810489</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810488</v>
+        <v>46.72521440565396</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30432,22 +30432,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.72521440565413</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.39291458738754</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371127</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>54.14548214544388</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413331</v>
+        <v>0.2805413179413294</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366679</v>
+        <v>2.87309377236664</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993325</v>
+        <v>10.81556915993311</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362324</v>
+        <v>23.81059368362293</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207988</v>
+        <v>35.68590767207941</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102696</v>
+        <v>44.27152403102637</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396614</v>
+        <v>49.26060069396549</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356696</v>
+        <v>50.0576887135663</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328782</v>
+        <v>47.2680559832872</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661116</v>
+        <v>40.34219219661063</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783716</v>
+        <v>30.29530624783676</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313228</v>
+        <v>17.62255356313205</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588135</v>
+        <v>6.39283528258805</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288186</v>
+        <v>1.22806961928817</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530665</v>
+        <v>0.02244330543530635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796483</v>
+        <v>0.1501028381796463</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840288</v>
+        <v>1.449677410840269</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694032</v>
+        <v>5.168014384693963</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906932</v>
+        <v>14.18142647906913</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710575</v>
+        <v>24.23831663710543</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264689</v>
+        <v>32.59140791264645</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665913</v>
+        <v>38.03263579665862</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655686</v>
+        <v>39.03924649655634</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847097</v>
+        <v>35.7132836084705</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449793</v>
+        <v>28.66305863449755</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447581</v>
+        <v>19.16049562447555</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767992</v>
+        <v>9.319542882767868</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608816</v>
+        <v>2.78809438460878</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890208</v>
+        <v>0.6050197731890128</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345287</v>
+        <v>0.009875186722345155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486841</v>
+        <v>0.1258411772486825</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811029</v>
+        <v>1.118842466811014</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078611</v>
+        <v>3.784387403078561</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481968</v>
+        <v>8.896971231481849</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489257</v>
+        <v>14.62045677489238</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477255</v>
+        <v>18.7091510247723</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908237</v>
+        <v>19.7261765390821</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115547</v>
+        <v>19.25713215115521</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875038</v>
+        <v>17.78707839875014</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287721</v>
+        <v>15.21991838287701</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852391</v>
+        <v>10.53748257852377</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381742</v>
+        <v>5.658276933381667</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233885</v>
+        <v>2.193068516233856</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625593</v>
+        <v>0.5376850300625522</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564597</v>
+        <v>0.006864064213564506</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33971,10 +33971,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34208,13 +34208,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923321</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>613.054391221597</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>672.8599917248231</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>574.0516558380588</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8164461252055</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36753,13 +36753,13 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861327</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>939.1244131184368</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>504.5005474138404</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>548.0751422097051</v>
+        <v>782.8881772547613</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
